--- a/biology/Médecine/Hadiyah-Nicole_Green/Hadiyah-Nicole_Green.xlsx
+++ b/biology/Médecine/Hadiyah-Nicole_Green/Hadiyah-Nicole_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadiyah-Nicole Green est une physicienne médicale américaine[1]. Ses travaux portent sur le développement d'un nouveau traitement du cancer à l'aide de nanoparticules activées par laser[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadiyah-Nicole Green est une physicienne médicale américaine. Ses travaux portent sur le développement d'un nouveau traitement du cancer à l'aide de nanoparticules activées par laser.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadiyah-Nicole Green  a perdu ses parents très tôt et a été élevé par son oncle et sa tante à Saint Louis dans le Missouri. Elle a étudié à l'Alabama A&amp;M University où elle a obtenu une licence en Physique et optique en 2003. Elle a ensuite étudié à l'Université d'Alabama de Birmingham où elle obtenu un master en 2009 et un doctorat de physique en 2012. Elle est la 2e femme noire à recevoir un doctorat en physique à l'Université d'Alabama de Birmingham où elle a commencé ses recherches sur les nanoparticules[3]. Elle enseigne et dirige ses recherches depuis 2013 à l'Université Tuskegee[4] et depuis avril 2016 à la Morehouse School of Medicine à Atlanta[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadiyah-Nicole Green  a perdu ses parents très tôt et a été élevé par son oncle et sa tante à Saint Louis dans le Missouri. Elle a étudié à l'Alabama A&amp;M University où elle a obtenu une licence en Physique et optique en 2003. Elle a ensuite étudié à l'Université d'Alabama de Birmingham où elle obtenu un master en 2009 et un doctorat de physique en 2012. Elle est la 2e femme noire à recevoir un doctorat en physique à l'Université d'Alabama de Birmingham où elle a commencé ses recherches sur les nanoparticules. Elle enseigne et dirige ses recherches depuis 2013 à l'Université Tuskegee et depuis avril 2016 à la Morehouse School of Medicine à Atlanta.
 </t>
         </is>
       </c>
